--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H2">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I2">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J2">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N2">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O2">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P2">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q2">
-        <v>45.9338430584423</v>
+        <v>48.18734601268024</v>
       </c>
       <c r="R2">
-        <v>45.9338430584423</v>
+        <v>192.749384050721</v>
       </c>
       <c r="S2">
-        <v>0.001815470203063628</v>
+        <v>0.001833374585631275</v>
       </c>
       <c r="T2">
-        <v>0.001815470203063628</v>
+        <v>0.0008475752568138689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H3">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I3">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J3">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N3">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P3">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q3">
-        <v>21.03762818625367</v>
+        <v>22.67360097147</v>
       </c>
       <c r="R3">
-        <v>21.03762818625367</v>
+        <v>136.04160582882</v>
       </c>
       <c r="S3">
-        <v>0.0008314825098932239</v>
+        <v>0.0008626580881814695</v>
       </c>
       <c r="T3">
-        <v>0.0008314825098932239</v>
+        <v>0.0005982146172119088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H4">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I4">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J4">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N4">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O4">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P4">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q4">
-        <v>198.189242013661</v>
+        <v>209.8243281680132</v>
       </c>
       <c r="R4">
-        <v>198.189242013661</v>
+        <v>1258.945969008079</v>
       </c>
       <c r="S4">
-        <v>0.007833149579619982</v>
+        <v>0.007983145421811852</v>
       </c>
       <c r="T4">
-        <v>0.007833149579619982</v>
+        <v>0.005535952595916046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H5">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I5">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J5">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N5">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O5">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P5">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q5">
-        <v>250.5892898159448</v>
+        <v>256.9672529092237</v>
       </c>
       <c r="R5">
-        <v>250.5892898159448</v>
+        <v>1541.803517455342</v>
       </c>
       <c r="S5">
-        <v>0.009904187382904148</v>
+        <v>0.009776783114373702</v>
       </c>
       <c r="T5">
-        <v>0.009904187382904148</v>
+        <v>0.006779759731527142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H6">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I6">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J6">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N6">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O6">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P6">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q6">
-        <v>27.43139351035487</v>
+        <v>28.92714783838467</v>
       </c>
       <c r="R6">
-        <v>27.43139351035487</v>
+        <v>173.562887030308</v>
       </c>
       <c r="S6">
-        <v>0.001084187044467406</v>
+        <v>0.001100585570073468</v>
       </c>
       <c r="T6">
-        <v>0.001084187044467406</v>
+        <v>0.0007632066336946594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H7">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I7">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J7">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N7">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O7">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P7">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q7">
-        <v>5.123182813344658</v>
+        <v>5.345178475042</v>
       </c>
       <c r="R7">
-        <v>5.123182813344658</v>
+        <v>21.380713900168</v>
       </c>
       <c r="S7">
-        <v>0.0002024865572567297</v>
+        <v>0.0002033669662825298</v>
       </c>
       <c r="T7">
-        <v>0.0002024865572567297</v>
+        <v>9.401723468039776E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H8">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I8">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J8">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N8">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O8">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P8">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q8">
-        <v>1024.064794055526</v>
+        <v>1077.348705381602</v>
       </c>
       <c r="R8">
-        <v>1024.064794055526</v>
+        <v>6464.092232289616</v>
       </c>
       <c r="S8">
-        <v>0.04047471310529934</v>
+        <v>0.04098967674604091</v>
       </c>
       <c r="T8">
-        <v>0.04047471310529934</v>
+        <v>0.02842449879066637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H9">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I9">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J9">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N9">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P9">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q9">
-        <v>469.0200719448181</v>
+        <v>506.92508872608</v>
       </c>
       <c r="R9">
-        <v>469.0200719448181</v>
+        <v>4562.32579853472</v>
       </c>
       <c r="S9">
-        <v>0.01853735521696302</v>
+        <v>0.01928688029933651</v>
       </c>
       <c r="T9">
-        <v>0.01853735521696302</v>
+        <v>0.02006187713338709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H10">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I10">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J10">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N10">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O10">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P10">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q10">
-        <v>4418.498688396555</v>
+        <v>4691.147926052798</v>
       </c>
       <c r="R10">
-        <v>4418.498688396555</v>
+        <v>42220.33133447518</v>
       </c>
       <c r="S10">
-        <v>0.1746349135397532</v>
+        <v>0.1784831931353691</v>
       </c>
       <c r="T10">
-        <v>0.1746349135397532</v>
+        <v>0.1856551103902248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H11">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I11">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J11">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N11">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O11">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P11">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q11">
-        <v>5586.723260698763</v>
+        <v>5745.145980323737</v>
       </c>
       <c r="R11">
-        <v>5586.723260698763</v>
+        <v>51706.31382291363</v>
       </c>
       <c r="S11">
-        <v>0.2208073380591427</v>
+        <v>0.2185844521982081</v>
       </c>
       <c r="T11">
-        <v>0.2208073380591427</v>
+        <v>0.2273677419680999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H12">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I12">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J12">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N12">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O12">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P12">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q12">
-        <v>611.5648610131835</v>
+        <v>646.7387779743075</v>
       </c>
       <c r="R12">
-        <v>611.5648610131835</v>
+        <v>5820.649001768767</v>
       </c>
       <c r="S12">
-        <v>0.02417123646714168</v>
+        <v>0.02460634455295191</v>
       </c>
       <c r="T12">
-        <v>0.02417123646714168</v>
+        <v>0.02559509124656578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H13">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I13">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J13">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N13">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O13">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P13">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q13">
-        <v>114.2179883791009</v>
+        <v>119.5048407232213</v>
       </c>
       <c r="R13">
-        <v>114.2179883791009</v>
+        <v>717.0290443393279</v>
       </c>
       <c r="S13">
-        <v>0.004514304502941307</v>
+        <v>0.004546777442032462</v>
       </c>
       <c r="T13">
-        <v>0.004514304502941307</v>
+        <v>0.00315298582868097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H14">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I14">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J14">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N14">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O14">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P14">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q14">
-        <v>951.7577085693745</v>
+        <v>985.6698137212798</v>
       </c>
       <c r="R14">
-        <v>951.7577085693745</v>
+        <v>5914.018882327679</v>
       </c>
       <c r="S14">
-        <v>0.03761687778323704</v>
+        <v>0.03750158777835531</v>
       </c>
       <c r="T14">
-        <v>0.03761687778323704</v>
+        <v>0.02600566584260482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H15">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I15">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J15">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N15">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P15">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q15">
-        <v>435.9035400283855</v>
+        <v>463.78740261102</v>
       </c>
       <c r="R15">
-        <v>435.9035400283855</v>
+        <v>4174.08662349918</v>
       </c>
       <c r="S15">
-        <v>0.01722847111496017</v>
+        <v>0.01764562914212444</v>
       </c>
       <c r="T15">
-        <v>0.01722847111496017</v>
+        <v>0.0183546762512335</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H16">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I16">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J16">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N16">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O16">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P16">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q16">
-        <v>4106.517684619352</v>
+        <v>4291.946404459281</v>
       </c>
       <c r="R16">
-        <v>4106.517684619352</v>
+        <v>38627.51764013352</v>
       </c>
       <c r="S16">
-        <v>0.162304305461549</v>
+        <v>0.1632948504521614</v>
       </c>
       <c r="T16">
-        <v>0.162304305461549</v>
+        <v>0.1698564607360983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H17">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I17">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J17">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N17">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O17">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P17">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q17">
-        <v>5192.256349284842</v>
+        <v>5256.252631984607</v>
       </c>
       <c r="R17">
-        <v>5192.256349284842</v>
+        <v>47306.27368786146</v>
       </c>
       <c r="S17">
-        <v>0.2052165911047598</v>
+        <v>0.199983622019819</v>
       </c>
       <c r="T17">
-        <v>0.2052165911047598</v>
+        <v>0.2080194822274783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H18">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I18">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J18">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N18">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O18">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P18">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q18">
-        <v>568.3835379735704</v>
+        <v>591.7033989347658</v>
       </c>
       <c r="R18">
-        <v>568.3835379735704</v>
+        <v>5325.330590412892</v>
       </c>
       <c r="S18">
-        <v>0.02246455572615643</v>
+        <v>0.02251242418607533</v>
       </c>
       <c r="T18">
-        <v>0.02246455572615643</v>
+        <v>0.02341703173277184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H19">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I19">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J19">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N19">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O19">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P19">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q19">
-        <v>106.1532937448119</v>
+        <v>109.3353651478387</v>
       </c>
       <c r="R19">
-        <v>106.1532937448119</v>
+        <v>656.012190887032</v>
       </c>
       <c r="S19">
-        <v>0.004195558849834715</v>
+        <v>0.004159861381865995</v>
       </c>
       <c r="T19">
-        <v>0.004195558849834715</v>
+        <v>0.002884676928553979</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H20">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I20">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J20">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N20">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O20">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P20">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q20">
-        <v>97.84685196308649</v>
+        <v>100.530564472193</v>
       </c>
       <c r="R20">
-        <v>97.84685196308649</v>
+        <v>603.1833868331579</v>
       </c>
       <c r="S20">
-        <v>0.003867258482521261</v>
+        <v>0.003824866842303056</v>
       </c>
       <c r="T20">
-        <v>0.003867258482521261</v>
+        <v>0.002652373269667321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H21">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I21">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J21">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N21">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O21">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P21">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q21">
-        <v>44.81370496641883</v>
+        <v>47.30266538604</v>
       </c>
       <c r="R21">
-        <v>44.81370496641883</v>
+        <v>425.7239884743599</v>
       </c>
       <c r="S21">
-        <v>0.001771198328689915</v>
+        <v>0.001799715313820461</v>
       </c>
       <c r="T21">
-        <v>0.001771198328689915</v>
+        <v>0.00187203253924811</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H22">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I22">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J22">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N22">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O22">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P22">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q22">
-        <v>422.1765942665419</v>
+        <v>437.7447586588046</v>
       </c>
       <c r="R22">
-        <v>422.1765942665419</v>
+        <v>3939.702827929242</v>
       </c>
       <c r="S22">
-        <v>0.01668593299164246</v>
+        <v>0.01665478973063098</v>
       </c>
       <c r="T22">
-        <v>0.01668593299164246</v>
+        <v>0.01732402234433995</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H23">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I23">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J23">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N23">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O23">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P23">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q23">
-        <v>533.7975556053381</v>
+        <v>536.0964054553907</v>
       </c>
       <c r="R23">
-        <v>533.7975556053381</v>
+        <v>4824.867649098515</v>
       </c>
       <c r="S23">
-        <v>0.02109759367263695</v>
+        <v>0.02039675571573411</v>
       </c>
       <c r="T23">
-        <v>0.02109759367263695</v>
+        <v>0.02121635022035395</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H24">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I24">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J24">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N24">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O24">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P24">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q24">
-        <v>58.43350613041185</v>
+        <v>60.34909040224267</v>
       </c>
       <c r="R24">
-        <v>58.43350613041185</v>
+        <v>543.1418136201839</v>
       </c>
       <c r="S24">
-        <v>0.002309501713264574</v>
+        <v>0.002296090110053395</v>
       </c>
       <c r="T24">
-        <v>0.002309501713264574</v>
+        <v>0.002388352961192023</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.538422</v>
+      </c>
+      <c r="H25">
+        <v>16.615266</v>
+      </c>
+      <c r="I25">
+        <v>0.04539649083831242</v>
+      </c>
+      <c r="J25">
+        <v>0.04574734568113767</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.013452</v>
+      </c>
+      <c r="N25">
+        <v>4.026904</v>
+      </c>
+      <c r="O25">
+        <v>0.009345945422996096</v>
+      </c>
+      <c r="P25">
+        <v>0.006431287803821671</v>
+      </c>
+      <c r="Q25">
+        <v>11.151346852744</v>
+      </c>
+      <c r="R25">
+        <v>66.90808111646399</v>
+      </c>
+      <c r="S25">
+        <v>0.0004242731257704102</v>
+      </c>
+      <c r="T25">
+        <v>0.0002942143463363147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1522935</v>
+      </c>
+      <c r="H26">
+        <v>0.304587</v>
+      </c>
+      <c r="I26">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J26">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.1514815</v>
+      </c>
+      <c r="N26">
+        <v>36.302963</v>
+      </c>
+      <c r="O26">
+        <v>0.08425468074010371</v>
+      </c>
+      <c r="P26">
+        <v>0.05797873581900372</v>
+      </c>
+      <c r="Q26">
+        <v>2.76435264782025</v>
+      </c>
+      <c r="R26">
+        <v>11.057410591281</v>
+      </c>
+      <c r="S26">
+        <v>0.0001051747877731745</v>
+      </c>
+      <c r="T26">
+        <v>4.86226592513271E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="H25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="I25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="J25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.97521603872285</v>
-      </c>
-      <c r="N25">
-        <v>1.97521603872285</v>
-      </c>
-      <c r="O25">
-        <v>0.009343680512334116</v>
-      </c>
-      <c r="P25">
-        <v>0.009343680512334116</v>
-      </c>
-      <c r="Q25">
-        <v>10.9132455927837</v>
-      </c>
-      <c r="R25">
-        <v>10.9132455927837</v>
-      </c>
-      <c r="S25">
-        <v>0.0004313306023013645</v>
-      </c>
-      <c r="T25">
-        <v>0.0004313306023013645</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.1522935</v>
+      </c>
+      <c r="H27">
+        <v>0.304587</v>
+      </c>
+      <c r="I27">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J27">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.54082</v>
+      </c>
+      <c r="N27">
+        <v>25.62246</v>
+      </c>
+      <c r="O27">
+        <v>0.03964437075611116</v>
+      </c>
+      <c r="P27">
+        <v>0.04092111818456775</v>
+      </c>
+      <c r="Q27">
+        <v>1.30071137067</v>
+      </c>
+      <c r="R27">
+        <v>7.80426822402</v>
+      </c>
+      <c r="S27">
+        <v>4.948791264828075E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.431764348713791E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.1522935</v>
+      </c>
+      <c r="H28">
+        <v>0.304587</v>
+      </c>
+      <c r="I28">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J28">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>79.03781233333333</v>
+      </c>
+      <c r="N28">
+        <v>237.113437</v>
+      </c>
+      <c r="O28">
+        <v>0.3668739460490447</v>
+      </c>
+      <c r="P28">
+        <v>0.3786891258148538</v>
+      </c>
+      <c r="Q28">
+        <v>12.0369450725865</v>
+      </c>
+      <c r="R28">
+        <v>72.221670435519</v>
+      </c>
+      <c r="S28">
+        <v>0.0004579673090714014</v>
+      </c>
+      <c r="T28">
+        <v>0.0003175797482745972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1522935</v>
+      </c>
+      <c r="H29">
+        <v>0.304587</v>
+      </c>
+      <c r="I29">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J29">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>96.79587533333334</v>
+      </c>
+      <c r="N29">
+        <v>290.387626</v>
+      </c>
+      <c r="O29">
+        <v>0.4493024755675663</v>
+      </c>
+      <c r="P29">
+        <v>0.4637722671001168</v>
+      </c>
+      <c r="Q29">
+        <v>14.741382640077</v>
+      </c>
+      <c r="R29">
+        <v>88.44829584046201</v>
+      </c>
+      <c r="S29">
+        <v>0.0005608625194313747</v>
+      </c>
+      <c r="T29">
+        <v>0.0003889329526573303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.1522935</v>
+      </c>
+      <c r="H30">
+        <v>0.304587</v>
+      </c>
+      <c r="I30">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J30">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.89644133333333</v>
+      </c>
+      <c r="N30">
+        <v>32.689324</v>
+      </c>
+      <c r="O30">
+        <v>0.05057858146417801</v>
+      </c>
+      <c r="P30">
+        <v>0.05220746527763637</v>
+      </c>
+      <c r="Q30">
+        <v>1.659457188198</v>
+      </c>
+      <c r="R30">
+        <v>9.956743129188</v>
+      </c>
+      <c r="S30">
+        <v>6.313704502391056E-05</v>
+      </c>
+      <c r="T30">
+        <v>4.378270341206664E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.1522935</v>
+      </c>
+      <c r="H31">
+        <v>0.304587</v>
+      </c>
+      <c r="I31">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J31">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.013452</v>
+      </c>
+      <c r="N31">
+        <v>4.026904</v>
+      </c>
+      <c r="O31">
+        <v>0.009345945422996096</v>
+      </c>
+      <c r="P31">
+        <v>0.006431287803821671</v>
+      </c>
+      <c r="Q31">
+        <v>0.306635652162</v>
+      </c>
+      <c r="R31">
+        <v>1.226542608648</v>
+      </c>
+      <c r="S31">
+        <v>1.166650704469901E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.393465570008876E-06</v>
       </c>
     </row>
   </sheetData>
